--- a/Chrome-CookiesDef.xlsx
+++ b/Chrome-CookiesDef.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Domain</t>
   </si>
@@ -95,7 +95,10 @@
     <t>https://www.waiz.gr/</t>
   </si>
   <si>
-    <t>CookieControl</t>
+    <t>preloader_shown</t>
+  </si>
+  <si>
+    <t>civiccomputing_accept</t>
   </si>
   <si>
     <t>https://developer.nbg.gr/</t>
@@ -461,11 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -604,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -615,7 +624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -626,119 +635,122 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -746,7 +758,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -754,13 +766,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
